--- a/nj pre post.xlsx
+++ b/nj pre post.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corelogic-my.sharepoint.com/personal/surakumar_corelogic_com/Documents/Downloads/pythonCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_31596F1BDC4EEC0F62355476585DCE3A8746A5D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EDFDF22-4C0B-482C-B33D-1A2252BA61DA}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_31596F1BDC4EEC0F62355476585DCE3A8746A5D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E15A2D4-9F57-4ABC-85CB-3EC093B5DB13}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$K$179</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$18:$E$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$K$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$18:$E$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="396">
   <si>
     <t>batchid</t>
   </si>
@@ -3791,6 +3793,44 @@
     <tableColumn id="8" xr3:uid="{75065D19-AD63-441B-98E5-53211BD257D0}" name="dev classify"/>
     <tableColumn id="9" xr3:uid="{D4B8914D-97D4-41ED-AF06-9FCDD061B57B}" name="match"/>
     <tableColumn id="10" xr3:uid="{B7479D10-F060-4259-96D8-7BD84758422F}" name="match_"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7F3E897F-3424-497E-801E-97299286ABC5}" name="Table2" displayName="Table2" ref="A1:J19" totalsRowShown="0">
+  <autoFilter ref="A1:J19" xr:uid="{7F3E897F-3424-497E-801E-97299286ABC5}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{5C8B21F3-82C6-4170-ABC0-DD1AD00CD762}" name="batchid"/>
+    <tableColumn id="2" xr3:uid="{E014F4B7-40FA-4AFE-9168-F35380ABBF31}" name="new batchid"/>
+    <tableColumn id="3" xr3:uid="{F778410A-A390-4B25-8BEE-587A94AE76B8}" name="imgName"/>
+    <tableColumn id="4" xr3:uid="{5E1B7D28-3981-4FE2-852E-7DC314E3E36A}" name="class"/>
+    <tableColumn id="5" xr3:uid="{DB6E5AA5-20C0-47C1-BA28-2335208EA078}" name="film ID"/>
+    <tableColumn id="6" xr3:uid="{D20238B8-B060-46FA-924C-378F63077BE3}" name="county"/>
+    <tableColumn id="7" xr3:uid="{2F116E9B-A60A-46F1-BB16-83AF2418EC96}" name="final classify"/>
+    <tableColumn id="8" xr3:uid="{64741057-B14E-4DC3-9D14-CBB7341B978A}" name="dev classify"/>
+    <tableColumn id="9" xr3:uid="{DFDF3DD0-2E36-48ED-B765-94040C2B44C0}" name="match"/>
+    <tableColumn id="10" xr3:uid="{218717BA-04F5-4D26-96A1-C3491D1F9604}" name="match_"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{019BA53C-8E45-485A-850E-359C6138A355}" name="Table3" displayName="Table3" ref="A1:J4" totalsRowShown="0">
+  <autoFilter ref="A1:J4" xr:uid="{019BA53C-8E45-485A-850E-359C6138A355}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{EBC5398E-D154-4023-8E50-205A050238FD}" name="batchid"/>
+    <tableColumn id="2" xr3:uid="{2D25803F-4236-46B4-B44A-14A44DDA847B}" name="new batchid"/>
+    <tableColumn id="3" xr3:uid="{96769154-FDB5-4EC8-BC03-FB4564A54859}" name="imgName"/>
+    <tableColumn id="4" xr3:uid="{B8AE0391-8579-4B87-BFB6-A4BA9D852C02}" name="class"/>
+    <tableColumn id="5" xr3:uid="{73C6C120-3689-4D52-856C-D14ED709DFB3}" name="film ID"/>
+    <tableColumn id="6" xr3:uid="{D24F9446-AB02-4CB9-8737-A89EAFEC73A4}" name="county"/>
+    <tableColumn id="7" xr3:uid="{F8C46ACF-A869-4F8D-AA47-290F99356C3F}" name="final classify"/>
+    <tableColumn id="8" xr3:uid="{CE5CE129-9EF6-4F77-89FA-EF3CD5C84BCA}" name="dev classify"/>
+    <tableColumn id="9" xr3:uid="{4D274B7B-1AAC-4069-9F39-1319297402F8}" name="match"/>
+    <tableColumn id="10" xr3:uid="{CC09C16F-3806-4B2F-8DE6-0DD81B30F674}" name="match_"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4714,11 +4754,799 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242FA2B7-A59F-42E2-94D1-D0CFEAC65728}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2">
+        <v>2772189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>987161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3">
+        <v>2772177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>987149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4">
+        <v>2772174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>987146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5">
+        <v>2772171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>987143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6">
+        <v>2772284</v>
+      </c>
+      <c r="C6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>987137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7">
+        <v>2772280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>987133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8">
+        <v>2772270</v>
+      </c>
+      <c r="C8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>987123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9">
+        <v>2772229</v>
+      </c>
+      <c r="C9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>987122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10">
+        <v>2772200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>987106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11">
+        <v>2772195</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>987101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12">
+        <v>2772194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>987100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13">
+        <v>2772149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>987090</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14">
+        <v>2772143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>987084</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15">
+        <v>2772141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>987082</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16">
+        <v>2772265</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>987075</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>2772262</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>987072</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18">
+        <v>2772211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>987028</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>2772210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>987027</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E2518C-789B-4AB3-973D-739161A03589}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2">
+        <v>2772278</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>987131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3">
+        <v>2772276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>987129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4">
+        <v>2772252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>987062</v>
+      </c>
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A11C22C-8D3A-4632-9E1C-02359A0004F1}">
   <dimension ref="A3:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5512,7 +6340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K179"/>
